--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdnf-Gfra2.xlsx
@@ -534,10 +534,10 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H2">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.708201</v>
+        <v>0.5473123333333333</v>
       </c>
       <c r="N2">
-        <v>2.124603</v>
+        <v>1.641937</v>
       </c>
       <c r="O2">
-        <v>0.03793614316565257</v>
+        <v>0.0240663820255865</v>
       </c>
       <c r="P2">
-        <v>0.03793614316565257</v>
+        <v>0.02406638202558651</v>
       </c>
       <c r="Q2">
-        <v>1.797650677134</v>
+        <v>0.3083448223533333</v>
       </c>
       <c r="R2">
-        <v>16.178856094206</v>
+        <v>2.77510340118</v>
       </c>
       <c r="S2">
-        <v>0.03793614316565257</v>
+        <v>0.0240663820255865</v>
       </c>
       <c r="T2">
-        <v>0.03793614316565257</v>
+        <v>0.02406638202558651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H3">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>39.15817300000001</v>
       </c>
       <c r="O3">
-        <v>0.699194182175866</v>
+        <v>0.5739535383160298</v>
       </c>
       <c r="P3">
-        <v>0.6991941821758659</v>
+        <v>0.5739535383160298</v>
       </c>
       <c r="Q3">
-        <v>33.13217396792734</v>
+        <v>7.353643834913335</v>
       </c>
       <c r="R3">
-        <v>298.189565711346</v>
+        <v>66.18279451422001</v>
       </c>
       <c r="S3">
-        <v>0.699194182175866</v>
+        <v>0.5739535383160298</v>
       </c>
       <c r="T3">
-        <v>0.6991941821758659</v>
+        <v>0.5739535383160298</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.538334</v>
+        <v>0.56338</v>
       </c>
       <c r="H4">
-        <v>7.615002</v>
+        <v>1.69014</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.907314</v>
+        <v>9.141742000000001</v>
       </c>
       <c r="N4">
-        <v>14.721942</v>
+        <v>27.425226</v>
       </c>
       <c r="O4">
-        <v>0.2628696746584814</v>
+        <v>0.4019800796583838</v>
       </c>
       <c r="P4">
-        <v>0.2628696746584814</v>
+        <v>0.4019800796583838</v>
       </c>
       <c r="Q4">
-        <v>12.456401974876</v>
+        <v>5.15027460796</v>
       </c>
       <c r="R4">
-        <v>112.107617773884</v>
+        <v>46.35247147164</v>
       </c>
       <c r="S4">
-        <v>0.2628696746584814</v>
+        <v>0.4019800796583838</v>
       </c>
       <c r="T4">
-        <v>0.2628696746584814</v>
+        <v>0.4019800796583838</v>
       </c>
     </row>
   </sheetData>
